--- a/publipostage/004dan487/liste_essais_cliniques_identifies_004dan487.xlsx
+++ b/publipostage/004dan487/liste_essais_cliniques_identifies_004dan487.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,28 +493,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT00551551</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Urinary Postpartum Handicap Prevention: Pelvic Floor Exercises vs Control. Multicentric Randomized Trial</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -521,32 +531,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>NCT01464073</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Evaluation of the Effectiveness of Individualized Exercise Program, Combined With a Balanced Diet Rich in Fruits and Vegetables, on the Evolution of Body Fat in Overweight or Obese Women, as Part of Type 2 Diabetes Prevention in Reunion Island.</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>LIPOXmax-RUN</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -558,32 +573,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>NCT01794377</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Influence of Muscle Strength on the Energy Cost of Walking in Obese Subjects</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>OBELIX</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -595,32 +615,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>NCT02275429</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Etude Des Troubles métaboliques Induits Par Une Course à Pied très Longue Distance, " La Diagonale Des Fous " de La Réunion / Metabolic Disorders in Ultramarathon Runners of the Madmen's Diagonal Race on Reunion Island</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>METARUN</t>
         </is>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -632,32 +657,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NCT02000674</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NCT01425866</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Succinylcholine vs Rocuronium for Prehospital Emergency Intubation : a Randomized Trial</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CURASMUR</t>
-        </is>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
+          <t>Multicenter Randomized Trial of Structured Educational Intervention at the Community Level in Insufficiently Controlled Patients With Type 2 Diabetes in Reunion Island</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ERMIES</t>
+        </is>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -669,32 +699,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NCT01425866</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NCT02000674</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Multicenter Randomized Trial of Structured Educational Intervention at the Community Level in Insufficiently Controlled Patients With Type 2 Diabetes in Reunion Island</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ERMIES</t>
-        </is>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
+          <t>Succinylcholine vs Rocuronium for Prehospital Emergency Intubation : a Randomized Trial</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>CURASMUR</t>
+        </is>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -706,32 +741,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>NCT02900989</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Etude de Validation de la Version française d'un Questionnaire " Ask Suicide-Screening Questions " (ASQ) Dans Une Population de Patients Adolescents Pris en Charge en unité d'Urgences pédiatriques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>ASQ-Fr</t>
         </is>
       </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -743,27 +783,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>NCT03226834</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Comparison of Musicotherapy Sessions Using Patient Play-list Versus U Sequence Music Care Medical Device on Pre-operative Anxiety in Women Undergoing Gynecological Surgery: a Randomized-control Study</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>MUANX</t>
         </is>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -771,6 +813,9 @@
       <c r="I9" t="b">
         <v>1</v>
       </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -780,32 +825,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>NCT03271112</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Frailty Prevention in Elderly People From Reunion Island: Effects of Adaptated Exercises on Physical Performance</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>5P-PILOTE</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -817,34 +867,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>NCT01537601</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Effect of Circumcision on the Risk of Febrile Urinary Tract Infections in Children With Posterior Urethral Valves.</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>CIRCUP</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -854,107 +909,122 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>NCT04768621</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Health Consequences of Wintering in the French Southern and Antarctic Territories</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>MediTAAF</t>
         </is>
       </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NCT04459221</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NCT05098925</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Study of the Impact of a School Program Combining - Promotion of HPV Vaccination and HPV Vaccine Offer in Middle School - on Adherence to HPV Vaccination in Middle School Students</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>PROM SSCOL</t>
-        </is>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
+          <t>Study of Thermoregulatory Processes in Ultra-endurance Runners in a Hot and Humid Environment</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>ERUPTION-2</t>
+        </is>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NCT05098925</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NCT04459221</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Study of Thermoregulatory Processes in Ultra-endurance Runners in a Hot and Humid Environment</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ERUPTION-2</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
+          <t>Study of the Impact of a School Program Combining - Promotion of HPV Vaccination and HPV Vaccine Offer in Middle School - on Adherence to HPV Vaccination in Middle School Students</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>PROM SSCOL</t>
+        </is>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -965,32 +1035,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>NCT04909411</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Consequences of a Maternal-fetal Chikungunya Virus Infection. Neurocognitive and Sensory Assessment Around the Age of 13.</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>CHIK13+</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1002,32 +1077,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>NCT05413720</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Study of the Innate Immune Response to the Acute Phase of Human Leptospirosis - IMMUNOLEPTO</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>IMMUNOLEPTO</t>
         </is>
       </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1039,32 +1119,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>NCT05237180</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Evaluation of the Effect of a Spatial Localization Training Program on Auditory Comprehension in Noise in Bi-implanted Subjects With Post-lingual Deafness</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>CAudiBruit</t>
         </is>
       </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1076,32 +1161,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>NCT05598138</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Clinical and Biological Strokes Collection in Reunion Island</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>CoBRA</t>
         </is>
       </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1113,32 +1203,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>NCT05424913</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Exploratory Study of the Relationships Between the Biomarkers of Inflammation, Lipidome and Insulin Resistance and Disorders of Glycemic Regulation in a Cohort of Insulin-resistant Subjects Due to Excess Weight or Dunnigan's Lipodystrophy</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>IRAP-DUN 2</t>
         </is>
       </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1150,32 +1245,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>NCT05367180</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Impact of a Prevention Program on Sun Risks in Primary School in Tropical French Region</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>PRESOLRE</t>
         </is>
       </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/004dan487/liste_essais_cliniques_identifies_004dan487.xlsx
+++ b/publipostage/004dan487/liste_essais_cliniques_identifies_004dan487.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +527,11 @@
       <c r="J2" t="b">
         <v>1</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -564,6 +574,11 @@
       <c r="J3" t="b">
         <v>1</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -606,6 +621,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -648,6 +668,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -690,6 +715,11 @@
       <c r="J6" t="b">
         <v>1</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -732,6 +762,11 @@
       <c r="J7" t="b">
         <v>1</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -774,6 +809,11 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -816,6 +856,11 @@
       <c r="J9" t="b">
         <v>1</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -858,6 +903,11 @@
       <c r="J10" t="b">
         <v>0</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -900,6 +950,11 @@
       <c r="J11" t="b">
         <v>1</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -942,6 +997,11 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -984,6 +1044,11 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1026,6 +1091,11 @@
       <c r="J14" t="b">
         <v>1</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1068,6 +1138,11 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1110,6 +1185,11 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1152,6 +1232,11 @@
       <c r="J17" t="b">
         <v>0</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1194,6 +1279,11 @@
       <c r="J18" t="b">
         <v>0</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1236,6 +1326,11 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1277,6 +1372,11 @@
       </c>
       <c r="J20" t="b">
         <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
       </c>
     </row>
   </sheetData>
